--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r110_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r110_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -477,10 +489,10 @@
       <c r="I12">
         <f>((C12-C11)^2+(D12- D11)^2)^.5</f>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L12" t="n">
@@ -524,28 +536,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="2">
+      <c r="A14" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -570,28 +582,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I16" t="s" s="2">
+      <c r="I16" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -824,10 +836,10 @@
       <c r="I24">
         <f>((C24-C23)^2+(D24- D23)^2)^.5</f>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="J24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L24" t="n">
@@ -871,28 +883,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="2">
+      <c r="A26" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="C26" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D26" t="s" s="2">
+      <c r="D26" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -917,28 +929,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C28" t="s" s="2">
+      <c r="C28" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D28" t="s" s="2">
+      <c r="D28" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I28" t="s" s="2">
+      <c r="I28" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1084,10 +1096,10 @@
       <c r="I33">
         <f>((C33-C32)^2+(D33- D32)^2)^.5</f>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="J33" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="K33" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="n">
@@ -1131,28 +1143,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="2">
+      <c r="A35" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="2">
+      <c r="C35" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D35" t="s" s="2">
+      <c r="D35" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1177,28 +1189,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C37" t="s" s="2">
+      <c r="C37" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="2">
+      <c r="D37" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I37" t="s" s="2">
+      <c r="I37" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1373,10 +1385,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="J43" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="K43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1420,28 +1432,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="2">
+      <c r="C45" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D45" t="s" s="2">
+      <c r="D45" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1466,28 +1478,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="2">
+      <c r="I47" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1691,10 +1703,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="2" t="s">
+      <c r="J54" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K54" s="2" t="s">
+      <c r="K54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1738,28 +1750,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="2">
+      <c r="A56" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="2">
+      <c r="C56" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D56" t="s" s="2">
+      <c r="D56" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1784,28 +1796,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="2">
+      <c r="C58" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="2">
+      <c r="D58" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="2">
+      <c r="I58" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1980,10 +1992,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="2" t="s">
+      <c r="J64" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K64" s="2" t="s">
+      <c r="K64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2027,28 +2039,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
+      <c r="A66" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="2">
+      <c r="C66" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D66" t="s" s="2">
+      <c r="D66" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2073,28 +2085,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="2">
+      <c r="I68" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2269,10 +2281,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="2" t="s">
+      <c r="J74" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K74" s="2" t="s">
+      <c r="K74" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2316,28 +2328,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="2">
+      <c r="A76" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="2">
+      <c r="C76" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D76" t="s" s="2">
+      <c r="D76" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2362,28 +2374,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="2">
+      <c r="I78" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2674,10 +2686,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="2" t="s">
+      <c r="J88" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K88" s="2" t="s">
+      <c r="K88" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2721,28 +2733,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="2">
+      <c r="A90" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="2">
+      <c r="C90" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D90" t="s" s="2">
+      <c r="D90" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2767,28 +2779,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="2">
+      <c r="C92" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="2">
+      <c r="D92" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="2">
+      <c r="I92" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3021,10 +3033,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="2" t="s">
+      <c r="J100" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K100" s="2" t="s">
+      <c r="K100" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3068,28 +3080,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="2">
+      <c r="A102" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3114,28 +3126,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="2">
+      <c r="C104" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="2">
+      <c r="D104" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="2">
+      <c r="I104" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3455,10 +3467,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="2" t="s">
+      <c r="J115" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K115" s="2" t="s">
+      <c r="K115" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3502,28 +3514,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="2">
+      <c r="A117" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="2">
+      <c r="C117" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D117" t="s" s="2">
+      <c r="D117" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3548,28 +3560,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="2">
+      <c r="C119" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="2">
+      <c r="D119" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="2">
+      <c r="I119" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3773,10 +3785,10 @@
       <c r="I126">
         <f>((C126-C125)^2+(D126- D125)^2)^.5</f>
       </c>
-      <c r="J126" s="2" t="s">
+      <c r="J126" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K126" s="2" t="s">
+      <c r="K126" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L126" t="n">
@@ -3820,28 +3832,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s" s="2">
+      <c r="A128" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="C128" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D128" t="s" s="2">
+      <c r="D128" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3866,28 +3878,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C130" t="s" s="2">
+      <c r="C130" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D130" t="s" s="2">
+      <c r="D130" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I130" t="s" s="2">
+      <c r="I130" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4033,10 +4045,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="2" t="s">
+      <c r="J135" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K135" s="2" t="s">
+      <c r="K135" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4080,28 +4092,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="2">
+      <c r="A137" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4126,28 +4138,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="2">
+      <c r="I139" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4322,10 +4334,10 @@
       <c r="I145">
         <f>((C145-C144)^2+(D145- D144)^2)^.5</f>
       </c>
-      <c r="J145" s="2" t="s">
+      <c r="J145" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K145" s="2" t="s">
+      <c r="K145" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L145" t="n">
@@ -4369,28 +4381,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="2">
+      <c r="A147" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C147" t="s" s="2">
+      <c r="C147" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D147" t="s" s="2">
+      <c r="D147" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4415,28 +4427,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C149" t="s" s="2">
+      <c r="C149" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D149" t="s" s="2">
+      <c r="D149" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I149" t="s" s="2">
+      <c r="I149" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4669,10 +4681,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="2" t="s">
+      <c r="J157" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K157" s="2" t="s">
+      <c r="K157" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4716,28 +4728,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="2">
+      <c r="A159" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="2">
+      <c r="C159" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D159" t="s" s="2">
+      <c r="D159" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4762,28 +4774,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="2">
+      <c r="I161" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5016,10 +5028,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="2" t="s">
+      <c r="J169" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K169" s="2" t="s">
+      <c r="K169" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5063,28 +5075,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="2">
+      <c r="A171" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="2">
+      <c r="C171" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D171" t="s" s="2">
+      <c r="D171" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5109,28 +5121,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="2">
+      <c r="I173" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5305,10 +5317,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="2" t="s">
+      <c r="J179" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K179" s="2" t="s">
+      <c r="K179" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5352,28 +5364,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="2">
+      <c r="A181" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="C181" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D181" t="s" s="2">
+      <c r="D181" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5398,28 +5410,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="2">
+      <c r="C183" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="2">
+      <c r="D183" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="2">
+      <c r="I183" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5507,10 +5519,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="2" t="s">
+      <c r="J186" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K186" s="2" t="s">
+      <c r="K186" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
